--- a/biology/Botanique/Boraginaceae/Boraginaceae.xlsx
+++ b/biology/Botanique/Boraginaceae/Boraginaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Boraginacées, Borraginacées ou Boragacées (Boraginaceae) forment une famille de plantes dicotylédones.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Borago, du latin burra, « bure ; étoffe grossière en laine ; étoffe à longs poils », et du suffixe latin -ago, « action ou état », en référence aux feuilles très velues de ces plantes. Ce nom remonterait au Moyen Âge[1].
-Tournefort, en 1700 nomma la plante Borrago (avec deux « r ») [2]. En 1753 Linné renomma le genre Borago (un seul « r »)[3], cependant en 1947 Fournier persiste à nommer le genre Borrago (Tourn.) L.[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Borago, du latin burra, « bure ; étoffe grossière en laine ; étoffe à longs poils », et du suffixe latin -ago, « action ou état », en référence aux feuilles très velues de ces plantes. Ce nom remonterait au Moyen Âge.
+Tournefort, en 1700 nomma la plante Borrago (avec deux « r ») . En 1753 Linné renomma le genre Borago (un seul « r »), cependant en 1947 Fournier persiste à nommer le genre Borrago (Tourn.) L..
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres, des arbustes, des plantes herbacées et plus rarement des lianes, producteurs d'huiles essentielles, largement répandus autour du monde avec concentration autour du bassin méditerranéen.
-Les inflorescences sont toujours des cymes unipares scorpioïdes. Les plantes appartenant à cette famille (mis à part les Cerinthes) sont également facilement reconnaissables à l'aide de leur poils plus ou moins rudes[4].
-La variation de couleur de la corolle (rose lorsque les fleurs sont jeunes et bleue lorsqu'elles sont épanouies) est majoritairement causée par la variation du pH vacuolaire. En effet, les pétales sont roses lorsque le pH est acide et bleus lorsqu'il est basique, ceci est dus à la présence dans la vacuole d'anthocyane sous forme dissoute[4]. La couleur peut également varier en fonction du pH du sol.
+Les inflorescences sont toujours des cymes unipares scorpioïdes. Les plantes appartenant à cette famille (mis à part les Cerinthes) sont également facilement reconnaissables à l'aide de leur poils plus ou moins rudes.
+La variation de couleur de la corolle (rose lorsque les fleurs sont jeunes et bleue lorsqu'elles sont épanouies) est majoritairement causée par la variation du pH vacuolaire. En effet, les pétales sont roses lorsque le pH est acide et bleus lorsqu'il est basique, ceci est dus à la présence dans la vacuole d'anthocyane sous forme dissoute. La couleur peut également varier en fonction du pH du sol.
 Elles ont 5 sépales soudés, 5 pétales soudés, généralement bleus, 5 étamines soudées à la corolle et 2 carpelles soudés.
 Les fruits sont des tétrakènes.
 On peut citer, pour les genres européens :
@@ -563,8 +579,8 @@
 ainsi que pour les genres américains :
 le genre Oreocarya avec Oreocarya virgata.
 De nombreuses espèces de cette famille sont des plantes mellifères, fréquentées par les abeilles.
-En classification phylogénétique APG III (2009)[5], cette famille n'est pas assignée à un ordre, mais les Boraginacées ont été déplacées à la base des Lamiidées (anglais Astéridées).
-La classification phylogénétique APG III (2009)[5] inclut dans cette famille le genre Hoplestigma précédemment placé dans la famille Hoplestigmataceae.
+En classification phylogénétique APG III (2009), cette famille n'est pas assignée à un ordre, mais les Boraginacées ont été déplacées à la base des Lamiidées (anglais Astéridées).
+La classification phylogénétique APG III (2009) inclut dans cette famille le genre Hoplestigma précédemment placé dans la famille Hoplestigmataceae.
 D'après Luebert et al. (2016), la famille devient l'ordre des Boraginales, qui comprend les familles suivantes :
 Boraginaceae s.str.
 Codonaceae
@@ -605,11 +621,13 @@
           <t>Composants et toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses espèces de la famille des Boraginacées (Bourrache, Consoudes, Pulmonaire) élaborent des alcaloïdes pyrrolizidiniques potentiellement toxiques pour le foie. Une consommation répétée ou en grande quantité est ainsi à éviter[6].
-Des espèces contenant ces alcaloïdes (par exemple Amsinckia intermedia et amsinckine) sont responsables d'empoisonnement du bétail dans l'ouest de l'Amérique du nord. De même Echium vulgare et Heliotropium europaeum contiennent un alcaloïde qui affecte le bétail par une toxicité et une atrophie hépatique souvent mortelles. Le Cynoglosse officinal, originaire d'Europe mais naturalisé jusqu'en Amérique du nord, est soupçonné d'être responsable d'une augmentation des empoisonnements du bétail en Angleterre[7].
-Le genre Amsinckia, produit la pyrrolizidine heliotrine, dotée d’un potentiel mutagène et tératogène. Les tiges et feuilles sèches d'Heliotropium supinum consommées par une femme allaitante affectent la santé du nourrisson qui risque de développer des tumeurs[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces de la famille des Boraginacées (Bourrache, Consoudes, Pulmonaire) élaborent des alcaloïdes pyrrolizidiniques potentiellement toxiques pour le foie. Une consommation répétée ou en grande quantité est ainsi à éviter.
+Des espèces contenant ces alcaloïdes (par exemple Amsinckia intermedia et amsinckine) sont responsables d'empoisonnement du bétail dans l'ouest de l'Amérique du nord. De même Echium vulgare et Heliotropium europaeum contiennent un alcaloïde qui affecte le bétail par une toxicité et une atrophie hépatique souvent mortelles. Le Cynoglosse officinal, originaire d'Europe mais naturalisé jusqu'en Amérique du nord, est soupçonné d'être responsable d'une augmentation des empoisonnements du bétail en Angleterre.
+Le genre Amsinckia, produit la pyrrolizidine heliotrine, dotée d’un potentiel mutagène et tératogène. Les tiges et feuilles sèches d'Heliotropium supinum consommées par une femme allaitante affectent la santé du nourrisson qui risque de développer des tumeurs.
 </t>
         </is>
       </c>
@@ -638,9 +656,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles et le sommet des tiges de la Bourrache officinale sont comestibles crues avec un goût rafraîchissant rappelant le concombre. Les feuilles plus vieilles, couvertes de poils rigides, sont consommées cuites. Cette plante est l'un des légumes sauvages les plus consommés dans les pays méditerranéens[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles et le sommet des tiges de la Bourrache officinale sont comestibles crues avec un goût rafraîchissant rappelant le concombre. Les feuilles plus vieilles, couvertes de poils rigides, sont consommées cuites. Cette plante est l'un des légumes sauvages les plus consommés dans les pays méditerranéens.
 </t>
         </is>
       </c>
@@ -669,9 +689,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (19 mars 2010)[9] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (19 mars 2010) :
 sous-famille Boraginoideae Arnott - Boraginoidées
 sous-famille Cordioideae Link - Cordioidées
 sous-famille Ehretioideae Arnott - Ehretioidées
@@ -705,9 +727,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (2 Jul 2010)[10] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (2 Jul 2010) :
 Alkanna
 Amsinckia
 Anchusa
@@ -798,7 +822,7 @@
 Trigonotis
 Ulugbekia
 Varronia
-Selon Angiosperm Phylogeny Website                        (2 Jul 2010)[11] :
+Selon Angiosperm Phylogeny Website                        (2 Jul 2010) :
 Actinocarya Bentham
 Afrotysonia Rauschert
 Alkanna Tausch
@@ -948,7 +972,7 @@
 Turricula
 Wellstedia Balf.f.
 Wigandia
-Selon DELTA Angio           (2 Jul 2010)[12] :
+Selon DELTA Angio           (2 Jul 2010) :
 Actinocarya
 Adelocaryum
 Afrotysonia
@@ -1071,7 +1095,7 @@
 Trigonotis
 Ulugbekia
 Valentiniella
-Selon ITIS      (2 Jul 2010)[13] :
+Selon ITIS      (2 Jul 2010) :
 Alkanna Tausch
 Amsinckia Lehm.
 Anchusa L.
